--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_283__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_283__Reeval_Sobol_Modell_1.3.xlsx
@@ -6130,16 +6130,16 @@
                   <c:v>83.09856414794922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.16876220703125</c:v>
+                  <c:v>47.16875839233398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.12364196777344</c:v>
+                  <c:v>62.1236457824707</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>48.66785049438477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.673583984375</c:v>
+                  <c:v>89.67359161376953</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>78.70413970947266</c:v>
@@ -6154,28 +6154,28 @@
                   <c:v>81.33246612548828</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.05448150634766</c:v>
+                  <c:v>90.05446624755859</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>27.91080474853516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.55309295654297</c:v>
+                  <c:v>97.55308532714844</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78.13504028320312</c:v>
+                  <c:v>78.13503265380859</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>78.70774078369141</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.38280487060547</c:v>
+                  <c:v>53.38280868530273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82.11946868896484</c:v>
+                  <c:v>82.11946105957031</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.72186279296875</c:v>
+                  <c:v>76.72185516357422</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>54.29800796508789</c:v>
@@ -6190,7 +6190,7 @@
                   <c:v>42.37465667724609</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>79.51223754882812</c:v>
+                  <c:v>79.51224517822266</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>60.2735595703125</c:v>
@@ -6208,13 +6208,13 @@
                   <c:v>77.98704528808594</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>78.71283721923828</c:v>
+                  <c:v>78.71282958984375</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>90.63063049316406</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83.41115570068359</c:v>
+                  <c:v>83.41114807128906</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>85.82370758056641</c:v>
@@ -6232,7 +6232,7 @@
                   <c:v>77.47792816162109</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75.777099609375</c:v>
+                  <c:v>75.77709197998047</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>42.60528945922852</c:v>
@@ -6241,10 +6241,10 @@
                   <c:v>75.68704986572266</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.03566741943359</c:v>
+                  <c:v>86.03565216064453</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>80.84405517578125</c:v>
+                  <c:v>80.84403991699219</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>55.0919303894043</c:v>
@@ -6256,31 +6256,31 @@
                   <c:v>73.31551361083984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>93.93236541748047</c:v>
+                  <c:v>93.93235778808594</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>48.42194366455078</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>81.82799530029297</c:v>
+                  <c:v>81.8280029296875</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>27.62828063964844</c:v>
+                  <c:v>27.62828254699707</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>58.63397979736328</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>96.25128173828125</c:v>
+                  <c:v>96.25127410888672</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>91.36299896240234</c:v>
+                  <c:v>91.36299133300781</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>73.45833587646484</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>78.66403961181641</c:v>
+                  <c:v>78.66403198242188</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>70.43898010253906</c:v>
@@ -6292,7 +6292,7 @@
                   <c:v>71.44440460205078</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>77.58718109130859</c:v>
+                  <c:v>77.58717346191406</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>55.38668441772461</c:v>
@@ -6301,19 +6301,19 @@
                   <c:v>89.58224487304688</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>81.28159332275391</c:v>
+                  <c:v>81.28158569335938</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>86.95169830322266</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>77.12160491943359</c:v>
+                  <c:v>77.12159729003906</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>41.37447738647461</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>81.06558227539062</c:v>
+                  <c:v>81.06557464599609</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>87.43448638916016</c:v>
@@ -6322,7 +6322,7 @@
                   <c:v>86.01442718505859</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>78.87123870849609</c:v>
+                  <c:v>78.87123107910156</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>86.90385437011719</c:v>
@@ -6331,13 +6331,13 @@
                   <c:v>56.55110549926758</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>74.57862091064453</c:v>
+                  <c:v>74.57862854003906</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>25.25974655151367</c:v>
+                  <c:v>25.25974464416504</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.96953582763672</c:v>
+                  <c:v>86.96952819824219</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>72.85526275634766</c:v>
@@ -6349,13 +6349,13 @@
                   <c:v>34.13505172729492</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>54.55166625976562</c:v>
+                  <c:v>54.55167007446289</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>50.03786849975586</c:v>
+                  <c:v>50.03787231445312</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>52.4764289855957</c:v>
+                  <c:v>52.47643280029297</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>62.91941070556641</c:v>
@@ -6367,22 +6367,22 @@
                   <c:v>84.54061889648438</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>75.50198364257812</c:v>
+                  <c:v>75.50197601318359</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>20.16373062133789</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>27.95229148864746</c:v>
+                  <c:v>27.95229339599609</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>95.54525756835938</c:v>
+                  <c:v>95.54524993896484</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>87.50370788574219</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>95.13433837890625</c:v>
+                  <c:v>95.13433074951172</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>56.65301513671875</c:v>
@@ -6394,10 +6394,10 @@
                   <c:v>79.24945831298828</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>78.61114501953125</c:v>
+                  <c:v>78.61113739013672</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>44.91986846923828</c:v>
+                  <c:v>44.91987228393555</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>73.27014923095703</c:v>
@@ -6409,10 +6409,10 @@
                   <c:v>81.31913757324219</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>30.67276573181152</c:v>
+                  <c:v>30.67276382446289</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>82.25858306884766</c:v>
+                  <c:v>82.25857543945312</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>77.89019775390625</c:v>
@@ -7247,7 +7247,7 @@
         <v>48.7815</v>
       </c>
       <c r="F6">
-        <v>47.16876220703125</v>
+        <v>47.16875839233398</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>68.6634</v>
       </c>
       <c r="F7">
-        <v>62.12364196777344</v>
+        <v>62.1236457824707</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -7331,7 +7331,7 @@
         <v>95.0206</v>
       </c>
       <c r="F9">
-        <v>89.673583984375</v>
+        <v>89.67359161376953</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>84.10420000000001</v>
       </c>
       <c r="F14">
-        <v>90.05448150634766</v>
+        <v>90.05446624755859</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>92.27889999999999</v>
       </c>
       <c r="F16">
-        <v>97.55309295654297</v>
+        <v>97.55308532714844</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>77.1523</v>
       </c>
       <c r="F17">
-        <v>78.13504028320312</v>
+        <v>78.13503265380859</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>53.38280487060547</v>
+        <v>53.38280868530273</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>81.3948</v>
       </c>
       <c r="F20">
-        <v>82.11946868896484</v>
+        <v>82.11946105957031</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>76.9473</v>
       </c>
       <c r="F21">
-        <v>76.72186279296875</v>
+        <v>76.72185516357422</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>79.8796</v>
       </c>
       <c r="F26">
-        <v>79.51223754882812</v>
+        <v>79.51224517822266</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>76.2226</v>
       </c>
       <c r="F32">
-        <v>78.71283721923828</v>
+        <v>78.71282958984375</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>80.1123</v>
       </c>
       <c r="F34">
-        <v>83.41115570068359</v>
+        <v>83.41114807128906</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>75.6026</v>
       </c>
       <c r="F40">
-        <v>75.777099609375</v>
+        <v>75.77709197998047</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>86.03566741943359</v>
+        <v>86.03565216064453</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>80.84405517578125</v>
+        <v>80.84403991699219</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>93.9173</v>
       </c>
       <c r="F48">
-        <v>93.93236541748047</v>
+        <v>93.93235778808594</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>81.82799530029297</v>
+        <v>81.8280029296875</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>23.918</v>
       </c>
       <c r="F51">
-        <v>27.62828063964844</v>
+        <v>27.62828254699707</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>96.6493</v>
       </c>
       <c r="F53">
-        <v>96.25128173828125</v>
+        <v>96.25127410888672</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.5389</v>
       </c>
       <c r="F54">
-        <v>91.36299896240234</v>
+        <v>91.36299133300781</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>80.2208</v>
       </c>
       <c r="F56">
-        <v>78.66403961181641</v>
+        <v>78.66403198242188</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>76.94629999999999</v>
       </c>
       <c r="F60">
-        <v>77.58718109130859</v>
+        <v>77.58717346191406</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>80.29730000000001</v>
       </c>
       <c r="F63">
-        <v>81.28159332275391</v>
+        <v>81.28158569335938</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>76.6541</v>
       </c>
       <c r="F65">
-        <v>77.12160491943359</v>
+        <v>77.12159729003906</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>80.6164</v>
       </c>
       <c r="F67">
-        <v>81.06558227539062</v>
+        <v>81.06557464599609</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>79.62130000000001</v>
       </c>
       <c r="F70">
-        <v>78.87123870849609</v>
+        <v>78.87123107910156</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>81.6987</v>
       </c>
       <c r="F73">
-        <v>74.57862091064453</v>
+        <v>74.57862854003906</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>25.8506</v>
       </c>
       <c r="F74">
-        <v>25.25974655151367</v>
+        <v>25.25974464416504</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>86.751</v>
       </c>
       <c r="F75">
-        <v>86.96953582763672</v>
+        <v>86.96952819824219</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>54.55166625976562</v>
+        <v>54.55167007446289</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.8515</v>
       </c>
       <c r="F80">
-        <v>50.03786849975586</v>
+        <v>50.03787231445312</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>55.7459</v>
       </c>
       <c r="F81">
-        <v>52.4764289855957</v>
+        <v>52.47643280029297</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>78.6379</v>
       </c>
       <c r="F85">
-        <v>75.50198364257812</v>
+        <v>75.50197601318359</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>27.95229148864746</v>
+        <v>27.95229339599609</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>96.01479999999999</v>
       </c>
       <c r="F88">
-        <v>95.54525756835938</v>
+        <v>95.54524993896484</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>89.8989</v>
       </c>
       <c r="F90">
-        <v>95.13433837890625</v>
+        <v>95.13433074951172</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>79.09650000000001</v>
       </c>
       <c r="F94">
-        <v>78.61114501953125</v>
+        <v>78.61113739013672</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.9895</v>
       </c>
       <c r="F95">
-        <v>44.91986846923828</v>
+        <v>44.91987228393555</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>30.67276573181152</v>
+        <v>30.67276382446289</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>80.6146</v>
       </c>
       <c r="F100">
-        <v>82.25858306884766</v>
+        <v>82.25857543945312</v>
       </c>
     </row>
     <row r="101" spans="1:6">
